--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.10243930219526</v>
+        <v>1.679012</v>
       </c>
       <c r="H2">
-        <v>3.10243930219526</v>
+        <v>5.037036000000001</v>
       </c>
       <c r="I2">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="J2">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N2">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O2">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P2">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q2">
-        <v>16.98567915899697</v>
+        <v>9.514577069922668</v>
       </c>
       <c r="R2">
-        <v>16.98567915899697</v>
+        <v>85.63119362930401</v>
       </c>
       <c r="S2">
-        <v>0.2529082094052089</v>
+        <v>0.1136766632890578</v>
       </c>
       <c r="T2">
-        <v>0.2529082094052089</v>
+        <v>0.1136766632890578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.10243930219526</v>
+        <v>1.679012</v>
       </c>
       <c r="H3">
-        <v>3.10243930219526</v>
+        <v>5.037036000000001</v>
       </c>
       <c r="I3">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="J3">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185010849503243</v>
+        <v>0.2062943333333333</v>
       </c>
       <c r="N3">
-        <v>0.185010849503243</v>
+        <v>0.618883</v>
       </c>
       <c r="O3">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466232</v>
       </c>
       <c r="P3">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466231</v>
       </c>
       <c r="Q3">
-        <v>0.5739849308313935</v>
+        <v>0.3463706611986667</v>
       </c>
       <c r="R3">
-        <v>0.5739849308313935</v>
+        <v>3.117335950788</v>
       </c>
       <c r="S3">
-        <v>0.008546346585455736</v>
+        <v>0.004138309116309378</v>
       </c>
       <c r="T3">
-        <v>0.008546346585455736</v>
+        <v>0.004138309116309377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3333170274568</v>
+        <v>3.197979</v>
       </c>
       <c r="H4">
-        <v>1.3333170274568</v>
+        <v>9.593937</v>
       </c>
       <c r="I4">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="J4">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N4">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O4">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P4">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q4">
-        <v>7.299835078025127</v>
+        <v>18.122215721802</v>
       </c>
       <c r="R4">
-        <v>7.299835078025127</v>
+        <v>163.099941496218</v>
       </c>
       <c r="S4">
-        <v>0.1086908684224605</v>
+        <v>0.2165175603202822</v>
       </c>
       <c r="T4">
-        <v>0.1086908684224605</v>
+        <v>0.2165175603202822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3333170274568</v>
+        <v>3.197979</v>
       </c>
       <c r="H5">
-        <v>1.3333170274568</v>
+        <v>9.593937</v>
       </c>
       <c r="I5">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="J5">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.185010849503243</v>
+        <v>0.2062943333333333</v>
       </c>
       <c r="N5">
-        <v>0.185010849503243</v>
+        <v>0.618883</v>
       </c>
       <c r="O5">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466232</v>
       </c>
       <c r="P5">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466231</v>
       </c>
       <c r="Q5">
-        <v>0.2466781159069213</v>
+        <v>0.659724945819</v>
       </c>
       <c r="R5">
-        <v>0.2466781159069213</v>
+        <v>5.937524512371</v>
       </c>
       <c r="S5">
-        <v>0.003672912929149787</v>
+        <v>0.007882150722845309</v>
       </c>
       <c r="T5">
-        <v>0.003672912929149787</v>
+        <v>0.007882150722845307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.4303184091872</v>
+        <v>1.919382666666667</v>
       </c>
       <c r="H6">
-        <v>7.4303184091872</v>
+        <v>5.758148</v>
       </c>
       <c r="I6">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="J6">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N6">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O6">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P6">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q6">
-        <v>40.68057172249529</v>
+        <v>10.87670267316355</v>
       </c>
       <c r="R6">
-        <v>40.68057172249529</v>
+        <v>97.890324058472</v>
       </c>
       <c r="S6">
-        <v>0.6057132279262956</v>
+        <v>0.1299508384225488</v>
       </c>
       <c r="T6">
-        <v>0.6057132279262956</v>
+        <v>0.1299508384225488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.919382666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.758148</v>
+      </c>
+      <c r="I7">
+        <v>0.134681596027112</v>
+      </c>
+      <c r="J7">
+        <v>0.134681596027112</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.618883</v>
+      </c>
+      <c r="O7">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P7">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q7">
+        <v>0.3959577676315555</v>
+      </c>
+      <c r="R7">
+        <v>3.563619908684</v>
+      </c>
+      <c r="S7">
+        <v>0.004730757604563201</v>
+      </c>
+      <c r="T7">
+        <v>0.0047307576045632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.4303184091872</v>
-      </c>
-      <c r="H7">
-        <v>7.4303184091872</v>
-      </c>
-      <c r="I7">
-        <v>0.6261816626577252</v>
-      </c>
-      <c r="J7">
-        <v>0.6261816626577252</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.185010849503243</v>
-      </c>
-      <c r="N7">
-        <v>0.185010849503243</v>
-      </c>
-      <c r="O7">
-        <v>0.0326876942460352</v>
-      </c>
-      <c r="P7">
-        <v>0.0326876942460352</v>
-      </c>
-      <c r="Q7">
-        <v>1.374689520963309</v>
-      </c>
-      <c r="R7">
-        <v>1.374689520963309</v>
-      </c>
-      <c r="S7">
-        <v>0.02046843473142968</v>
-      </c>
-      <c r="T7">
-        <v>0.02046843473142968</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.454888</v>
+      </c>
+      <c r="H8">
+        <v>22.364664</v>
+      </c>
+      <c r="I8">
+        <v>0.5231037205243934</v>
+      </c>
+      <c r="J8">
+        <v>0.5231037205243932</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N8">
+        <v>17.000314</v>
+      </c>
+      <c r="O8">
+        <v>0.9648745059153377</v>
+      </c>
+      <c r="P8">
+        <v>0.9648745059153376</v>
+      </c>
+      <c r="Q8">
+        <v>42.24514561161067</v>
+      </c>
+      <c r="R8">
+        <v>380.206310504496</v>
+      </c>
+      <c r="S8">
+        <v>0.504729443883449</v>
+      </c>
+      <c r="T8">
+        <v>0.5047294438834488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.454888</v>
+      </c>
+      <c r="H9">
+        <v>22.364664</v>
+      </c>
+      <c r="I9">
+        <v>0.5231037205243934</v>
+      </c>
+      <c r="J9">
+        <v>0.5231037205243932</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.618883</v>
+      </c>
+      <c r="O9">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P9">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q9">
+        <v>1.537901150034667</v>
+      </c>
+      <c r="R9">
+        <v>13.841110350312</v>
+      </c>
+      <c r="S9">
+        <v>0.01837427664094443</v>
+      </c>
+      <c r="T9">
+        <v>0.01837427664094442</v>
       </c>
     </row>
   </sheetData>
